--- a/Technologie_informacyjne/lista_5_Kamil_Woźniak/lista_5_zad1_Kamil_Woźniak.xlsx
+++ b/Technologie_informacyjne/lista_5_Kamil_Woźniak/lista_5_zad1_Kamil_Woźniak.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EFE26C-0313-4266-90DE-D9449E0BDBFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D7DBCD-071A-4ED2-AB04-86A3A9904E21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kwartał" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
+    <sheet name="Zad.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zad.2" sheetId="2" r:id="rId2"/>
+    <sheet name="Zad.3" sheetId="3" r:id="rId3"/>
+    <sheet name="Zad.4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -65,13 +76,22 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>Kąt (radiany)</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>Kąt (stopnie)</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>Sin kąta</t>
+  </si>
+  <si>
+    <t>Cosinus</t>
+  </si>
+  <si>
+    <t>Tangens</t>
+  </si>
+  <si>
+    <t>Cotangens</t>
   </si>
 </sst>
 </file>
@@ -104,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -127,13 +147,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -141,6 +271,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -156,6 +295,3499 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zad.3!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zad.3!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64278760968653947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34202014332566888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17364817766693028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.17364817766693047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.34202014332566866</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.76604444311897812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.64278760968653958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3420201433256686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17364817766693039</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3258-45F7-BEE1-A4A4DF71FF0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="329816848"/>
+        <c:axId val="339110176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="329816848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339110176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="339110176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329816848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Cosinus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zad.4!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zad.4!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64278760968653936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34202014332566882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17364817766693041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1257422745431001E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1736481776669303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.49999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64278760968653936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.64278760968653947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.34202014332566855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.83772268236293E-16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17364817766692997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34202014332566899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76604444311897779</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93969262078590843</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC99-42B3-86CF-A15A08F75C52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463982016"/>
+        <c:axId val="455323328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463982016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455323328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455323328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463982016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zad.4!$A$41:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zad.4!$C$41:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17632698070846498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36397023426620234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57735026918962573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83909963117727993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19175359259421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7320508075688767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7474774194546216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6712818196177066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6324552277619072E+16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.6712818196177111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7474774194546225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7320508075688783</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.19175359259421</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.83909963117728037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.57735026918962573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36397023426620256</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17632698070846489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17632698070846509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36397023426620229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57735026918962595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.83909963117727993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1917535925942093</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7320508075688754</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7474774194546243</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6712818196177102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5441517425873024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6712818196177226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.7474774194546199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.732050807568877</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.1917535925942102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.83909963117728059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.57735026918962651</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.36397023426620218</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.176326980708465</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4892-4802-A0E7-DD46A634EB28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="568383552"/>
+        <c:axId val="330441104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="568383552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330441104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330441104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568383552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB064AB-8265-49DE-8838-93FDFEDF4B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DFDB62-0097-4F57-80BC-806C83ED99BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9E63C5-F009-452E-A949-E81D9EDE95BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autor" refreshedDate="43476.543035416667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{3F4FA174-6A2A-4E69-A88A-ED4BF673D99A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:E16" sheet="Zad.1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Data" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nazwa produktu" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nazwa firmy" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Kwota" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="50000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <s v="styczeń"/>
+    <s v="Buty"/>
+    <s v="alfa"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <s v="styczeń"/>
+    <s v="Narty"/>
+    <s v="beta"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <s v="styczeń"/>
+    <s v="Spodnie"/>
+    <s v="gamma"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <s v="luty"/>
+    <s v="Kurtki"/>
+    <s v="alfa"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="luty"/>
+    <s v="Buty"/>
+    <s v="alfa"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <s v="luty"/>
+    <s v="Spodnie"/>
+    <s v="beta"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <s v="luty"/>
+    <s v="Spodnie"/>
+    <s v="gamma"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <s v="luty"/>
+    <s v="Narty"/>
+    <s v="gamma"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Kurtki"/>
+    <s v="alfa"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Spodnie"/>
+    <s v="alfa"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Buty"/>
+    <s v="beta"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Spodnie"/>
+    <s v="beta"/>
+    <n v="1700"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Kurtki"/>
+    <s v="gamma"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <s v="marzec"/>
+    <s v="Buty"/>
+    <s v="gamma"/>
+    <n v="700"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D7DE443-7609-4C55-B9E1-C60AF01AA5A6}" name="Tabela przestawna3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:J20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,262 +4065,2290 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>10000</v>
       </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>50000</v>
       </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2000</v>
       </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2500</v>
       </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>3000</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>5000</v>
       </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>10000</v>
       </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>300</v>
       </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>5000</v>
       </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1500</v>
       </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2500</v>
       </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1700</v>
       </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1200</v>
       </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>700</v>
       </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F8779-7CF2-41E8-87BA-7EC86A32D753}">
-  <dimension ref="B1:F4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C71DFD-15C2-4715-B5B5-26A69E7151FC}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>RADIANS(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SIN(B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
+      <c r="B3">
+        <f t="shared" ref="B3:B38" si="0">RADIANS(A3)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C38" si="1">SIN(B3)</f>
+        <v>0.17364817766693033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.17364817766693028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-0.17364817766693047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-0.7660444431189779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-0.76604444311897812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>-0.3420201433256686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>-0.17364817766693039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-2.45029690981724E-16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5BE48-10FD-4805-884C-64CCF68C97EA}">
+  <dimension ref="A1:C116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>RADIANS(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>COS(B2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B38" si="0">RADIANS(A3)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C38" si="1">COS(B3)</f>
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.17364817766693041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-0.1736481776669303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-0.49999999999999978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-0.7660444431189779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-0.93969262078590843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-0.64278760968653947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-0.34202014332566855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.17364817766693033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.17364817766692997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.34202014332566899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.64278760968653925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.76604444311897779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.93969262078590843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>RADIANS(A41)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>TAN(B41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:B77" si="2">RADIANS(A42)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C77" si="3">TAN(B42)</f>
+        <v>0.17632698070846498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>0.36397023426620234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>0.83909963117727993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>1.19175359259421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>1.7320508075688767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>2.7474774194546216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>5.6712818196177066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>90</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>1.6324552277619072E+16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>-5.6712818196177111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>-2.7474774194546225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>120</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>-1.7320508075688783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>130</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>-1.19175359259421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>140</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>-0.83909963117728037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>-0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>160</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>-0.36397023426620256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>170</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>-0.17632698070846489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>180</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>-1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>190</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="2"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>0.17632698070846509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>200</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="2"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>0.36397023426620229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>210</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="2"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>0.57735026918962595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>220</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="2"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>0.83909963117727993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>230</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="2"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>1.1917535925942093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>240</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="2"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>1.7320508075688754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>250</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="2"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>2.7474774194546243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>260</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>5.6712818196177102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>270</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>5441517425873024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>280</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>-5.6712818196177226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>290</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>-2.7474774194546199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>300</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>-1.732050807568877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>310</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>-1.1917535925942102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>320</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>-0.83909963117728059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>330</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>-0.57735026918962651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>340</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>-0.36397023426620218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>350</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>-0.176326980708465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>360</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B116" si="4">RADIANS(A81)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81:C116" si="5">_xlfn.COT(B81)</f>
+        <v>5.6712818196177093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>20</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>2.7474774194546225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>1.7320508075688774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>40</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>1.19175359259421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>0.83909963117728004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>60</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>0.57735026918962595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>70</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>0.36397023426620245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>0.17632698070846506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>-0.17632698070846492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>110</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>-0.36397023426620234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>-0.5773502691896254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>130</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>-0.83909963117728004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>140</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>-1.1917535925942095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>150</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>-1.7320508075688774</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>160</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>-2.7474774194546208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>170</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>-5.6712818196177119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>180</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>-8162276138809536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>190</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>5.6712818196177057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>200</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>2.747477419454623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>210</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>1.7320508075688767</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>220</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>1.19175359259421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>230</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>0.83909963117728048</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>240</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="5"/>
+        <v>0.5773502691896264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>250</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>4.3633231299858242</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>0.36397023426620206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>260</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="4"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>0.17632698070846495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>270</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="4"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>1.83772268236293E-16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>280</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="4"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>-0.17632698070846456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>290</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="4"/>
+        <v>5.0614548307835561</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>-0.36397023426620267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>300</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="4"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>-0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>310</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="4"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>-0.83909963117727981</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>320</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="4"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>-1.1917535925942091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>330</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="4"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>-1.732050807568875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>340</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="4"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>-2.7474774194546239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>350</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="4"/>
+        <v>6.1086523819801535</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>-5.6712818196177084</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>360</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="4"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>-4081138069404768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>